--- a/client/data/dataset/account.xlsx
+++ b/client/data/dataset/account.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\SUT\COS30049-class02-group1.4\client\data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF93514C-9714-49BE-9B3A-CD0C07CE45A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A494DA-9DF5-4F8F-BEE1-F74F2E2AB39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7277119D-CE5E-413D-9B18-AF0B3F3C078C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">account!$A$1:$E$11</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">account!$A$1:$F$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>accountId</t>
   </si>
@@ -65,94 +65,67 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>mheyburn0</t>
-  </si>
-  <si>
     <t>Marianna</t>
   </si>
   <si>
     <t>Heyburn</t>
   </si>
   <si>
-    <t>abazelle1</t>
-  </si>
-  <si>
     <t>Alidia</t>
   </si>
   <si>
     <t>Bazelle</t>
   </si>
   <si>
-    <t>smacrury2</t>
-  </si>
-  <si>
     <t>Susanetta</t>
   </si>
   <si>
     <t>MacRury</t>
   </si>
   <si>
-    <t>dmazdon3</t>
-  </si>
-  <si>
     <t>Damaris</t>
   </si>
   <si>
     <t>Mazdon</t>
   </si>
   <si>
-    <t>hsteedman4</t>
-  </si>
-  <si>
     <t>Halley</t>
   </si>
   <si>
     <t>Steedman</t>
   </si>
   <si>
-    <t>begar5</t>
-  </si>
-  <si>
-    <t>Beret</t>
-  </si>
-  <si>
-    <t>Egar</t>
-  </si>
-  <si>
-    <t>aodde6</t>
-  </si>
-  <si>
-    <t>Alika</t>
-  </si>
-  <si>
-    <t>Odde</t>
-  </si>
-  <si>
-    <t>aschaffel7</t>
-  </si>
-  <si>
-    <t>Addia</t>
-  </si>
-  <si>
-    <t>Schaffel</t>
-  </si>
-  <si>
-    <t>ksherman8</t>
-  </si>
-  <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>Sherman</t>
-  </si>
-  <si>
-    <t>rchampken9</t>
-  </si>
-  <si>
-    <t>Rhianna</t>
-  </si>
-  <si>
-    <t>Champken</t>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>alidia</t>
+  </si>
+  <si>
+    <t>susan</t>
+  </si>
+  <si>
+    <t>damaris</t>
+  </si>
+  <si>
+    <t>halley</t>
+  </si>
+  <si>
+    <t>publicKey</t>
+  </si>
+  <si>
+    <t>0x061E17F6191e596863244cd33076E45663fe0dd1</t>
+  </si>
+  <si>
+    <t>0x7cDd2EFdeD0970a9203c54a4bB59d2c1ee570E2F</t>
+  </si>
+  <si>
+    <t>0x9744E1fdFbF28b82d8032F16691Cb067009246E6</t>
+  </si>
+  <si>
+    <t>0xEb0aF93D3D730387f82dFb38Fe78c2D6bb52A97e</t>
+  </si>
+  <si>
+    <t>0xeDf25a07a339e3a3a816Af11b8C93Ce36B396E9E</t>
   </si>
 </sst>
 </file>
@@ -189,9 +162,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,12 +196,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{6C8BEBCC-9E8F-45E7-85CC-EFF3E2699429}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="7">
+    <queryTableFields count="6">
       <queryTableField id="1" name="accountId" tableColumnId="1"/>
       <queryTableField id="2" name="username" tableColumnId="2"/>
       <queryTableField id="3" name="password" tableColumnId="3"/>
       <queryTableField id="4" name="firstName" tableColumnId="4"/>
+      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
       <queryTableField id="5" name="lastName" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
@@ -237,14 +210,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BCA3282-EC96-4E0C-BC0E-A0261871934E}" name="account" displayName="account" ref="A1:E11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{5BCA3282-EC96-4E0C-BC0E-A0261871934E}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BCA3282-EC96-4E0C-BC0E-A0261871934E}" name="account" displayName="account" ref="A1:F6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{5BCA3282-EC96-4E0C-BC0E-A0261871934E}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F3A3DAF7-9BC0-413A-94BE-A6AE6DDDF71F}" uniqueName="1" name="accountId" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{D41E368E-2A0E-4AF3-9525-FE4A5A43B4DC}" uniqueName="2" name="username" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{FF7257BE-1E72-498E-A4C4-9E7D25A5E1F8}" uniqueName="3" name="password" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{B67BDA9A-D441-4FF8-9314-9609028ADA5E}" uniqueName="4" name="firstName" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D4255634-A6C9-4DF9-8F3C-C534EFA31F9B}" uniqueName="5" name="lastName" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{0C5DD4AC-EC51-49CE-9561-98CFA8136ED7}" uniqueName="6" name="lastName" queryTableFieldId="6"/>
+    <tableColumn id="5" xr3:uid="{D4255634-A6C9-4DF9-8F3C-C534EFA31F9B}" uniqueName="5" name="publicKey" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55DAA5F-38F8-44C9-9F88-0DFBA17BE65C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +553,11 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,175 +573,108 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
         <v>123456</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>123456</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>123456</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/client/data/dataset/account.xlsx
+++ b/client/data/dataset/account.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\SUT\COS30049-class02-group1.4\client\data\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A494DA-9DF5-4F8F-BEE1-F74F2E2AB39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF93514C-9714-49BE-9B3A-CD0C07CE45A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7277119D-CE5E-413D-9B18-AF0B3F3C078C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">account!$A$1:$F$6</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">account!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>accountId</t>
   </si>
@@ -65,67 +65,94 @@
     <t>lastName</t>
   </si>
   <si>
+    <t>mheyburn0</t>
+  </si>
+  <si>
     <t>Marianna</t>
   </si>
   <si>
     <t>Heyburn</t>
   </si>
   <si>
+    <t>abazelle1</t>
+  </si>
+  <si>
     <t>Alidia</t>
   </si>
   <si>
     <t>Bazelle</t>
   </si>
   <si>
+    <t>smacrury2</t>
+  </si>
+  <si>
     <t>Susanetta</t>
   </si>
   <si>
     <t>MacRury</t>
   </si>
   <si>
+    <t>dmazdon3</t>
+  </si>
+  <si>
     <t>Damaris</t>
   </si>
   <si>
     <t>Mazdon</t>
   </si>
   <si>
+    <t>hsteedman4</t>
+  </si>
+  <si>
     <t>Halley</t>
   </si>
   <si>
     <t>Steedman</t>
   </si>
   <si>
-    <t>maria</t>
-  </si>
-  <si>
-    <t>alidia</t>
-  </si>
-  <si>
-    <t>susan</t>
-  </si>
-  <si>
-    <t>damaris</t>
-  </si>
-  <si>
-    <t>halley</t>
-  </si>
-  <si>
-    <t>publicKey</t>
-  </si>
-  <si>
-    <t>0x061E17F6191e596863244cd33076E45663fe0dd1</t>
-  </si>
-  <si>
-    <t>0x7cDd2EFdeD0970a9203c54a4bB59d2c1ee570E2F</t>
-  </si>
-  <si>
-    <t>0x9744E1fdFbF28b82d8032F16691Cb067009246E6</t>
-  </si>
-  <si>
-    <t>0xEb0aF93D3D730387f82dFb38Fe78c2D6bb52A97e</t>
-  </si>
-  <si>
-    <t>0xeDf25a07a339e3a3a816Af11b8C93Ce36B396E9E</t>
+    <t>begar5</t>
+  </si>
+  <si>
+    <t>Beret</t>
+  </si>
+  <si>
+    <t>Egar</t>
+  </si>
+  <si>
+    <t>aodde6</t>
+  </si>
+  <si>
+    <t>Alika</t>
+  </si>
+  <si>
+    <t>Odde</t>
+  </si>
+  <si>
+    <t>aschaffel7</t>
+  </si>
+  <si>
+    <t>Addia</t>
+  </si>
+  <si>
+    <t>Schaffel</t>
+  </si>
+  <si>
+    <t>ksherman8</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>rchampken9</t>
+  </si>
+  <si>
+    <t>Rhianna</t>
+  </si>
+  <si>
+    <t>Champken</t>
   </si>
 </sst>
 </file>
@@ -162,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,13 +224,12 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{6C8BEBCC-9E8F-45E7-85CC-EFF3E2699429}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="accountId" tableColumnId="1"/>
       <queryTableField id="2" name="username" tableColumnId="2"/>
       <queryTableField id="3" name="password" tableColumnId="3"/>
       <queryTableField id="4" name="firstName" tableColumnId="4"/>
-      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
       <queryTableField id="5" name="lastName" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
@@ -210,15 +237,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BCA3282-EC96-4E0C-BC0E-A0261871934E}" name="account" displayName="account" ref="A1:F6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F6" xr:uid="{5BCA3282-EC96-4E0C-BC0E-A0261871934E}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BCA3282-EC96-4E0C-BC0E-A0261871934E}" name="account" displayName="account" ref="A1:E11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{5BCA3282-EC96-4E0C-BC0E-A0261871934E}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F3A3DAF7-9BC0-413A-94BE-A6AE6DDDF71F}" uniqueName="1" name="accountId" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{D41E368E-2A0E-4AF3-9525-FE4A5A43B4DC}" uniqueName="2" name="username" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{FF7257BE-1E72-498E-A4C4-9E7D25A5E1F8}" uniqueName="3" name="password" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{B67BDA9A-D441-4FF8-9314-9609028ADA5E}" uniqueName="4" name="firstName" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0C5DD4AC-EC51-49CE-9561-98CFA8136ED7}" uniqueName="6" name="lastName" queryTableFieldId="6"/>
-    <tableColumn id="5" xr3:uid="{D4255634-A6C9-4DF9-8F3C-C534EFA31F9B}" uniqueName="5" name="publicKey" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D4255634-A6C9-4DF9-8F3C-C534EFA31F9B}" uniqueName="5" name="lastName" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -541,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55DAA5F-38F8-44C9-9F88-0DFBA17BE65C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,11 +579,10 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,108 +598,175 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>123456</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>123456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>123456</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>123456</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
